--- a/CameraPosition/CameraPosition.xlsx
+++ b/CameraPosition/CameraPosition.xlsx
@@ -8,43 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LEDCeliling\CameraPosition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D30B06B-22B2-404A-BA2C-60B99776753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A70B42CF-A40B-4018-8F2B-D36776A7C6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="CameraPosition" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="CameraPositionCounts">6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>D:\work\LEDCeliling\CameraPosition\CameraPosition.kicad_sch</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Tool:</t>
-  </si>
-  <si>
-    <t>Eeschema (6.0.7)</t>
-  </si>
-  <si>
-    <t>Generator:</t>
-  </si>
-  <si>
-    <t>C:\Program Files\KiCad\6.0\bin\scripting\plugins/bom_csv_grouped_by_value_with_fp.py</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Ref</t>
   </si>
@@ -55,45 +34,18 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Cmp name</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT1, </t>
-  </si>
-  <si>
-    <t>Battery_Cell</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Single-cell battery</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1, C2, C6, C7, C9, C10, C13, C20, </t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
-    <t>C0805</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
-  </si>
-  <si>
     <t xml:space="preserve">C3, C4, C18, C21, </t>
   </si>
   <si>
@@ -112,9 +64,6 @@
     <t>22u</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C14, </t>
   </si>
   <si>
@@ -130,9 +79,6 @@
     <t>LED_SMD:LED_0805_2012Metric</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t xml:space="preserve">D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, </t>
   </si>
   <si>
@@ -142,9 +88,6 @@
     <t>LED_SMD:LED_WS2812B_PLCC4_5.0x5.0mm_P3.2mm</t>
   </si>
   <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">J1, </t>
   </si>
   <si>
@@ -154,9 +97,6 @@
     <t>1Use:USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
   </si>
   <si>
-    <t>USB 2.0-only Type-C Receptacle connector</t>
-  </si>
-  <si>
     <t xml:space="preserve">J2, </t>
   </si>
   <si>
@@ -166,24 +106,15 @@
     <t>1Use:Hirose_FH12-24S-0.5SH_1x24-1MP_P0.50mm_Horizontal</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x25, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1, </t>
   </si>
   <si>
     <t>1n</t>
   </si>
   <si>
-    <t>L_Small</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_Wuerth_MAPI-2512</t>
   </si>
   <si>
-    <t>Inductor, small symbol</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1, </t>
   </si>
   <si>
@@ -193,33 +124,21 @@
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>P-MOSFET transistor, gate/source/drain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q2, Q3, </t>
   </si>
   <si>
     <t>2N7002</t>
   </si>
   <si>
-    <t>0.115A Id, 60V Vds, N-Channel MOSFET, SOT-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1, R6, R7, R10, R13, </t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t xml:space="preserve">R2, </t>
   </si>
   <si>
@@ -229,12 +148,6 @@
     <t>5.1K</t>
   </si>
   <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>Resistor, US symbol</t>
-  </si>
-  <si>
     <t xml:space="preserve">R4, </t>
   </si>
   <si>
@@ -262,21 +175,6 @@
     <t>Button_Switch_SMD:SW_SPST_CK_RS282G05A3</t>
   </si>
   <si>
-    <t>Push button switch, generic, two pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1, TP2, TP3, </t>
-  </si>
-  <si>
-    <t>TestPoint_2Pole</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.00mm:PinHeader_1x02_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>2-polar test point</t>
-  </si>
-  <si>
     <t xml:space="preserve">U1, </t>
   </si>
   <si>
@@ -286,21 +184,12 @@
     <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
   </si>
   <si>
-    <t>1A Low Dropout regulator, positive, adjustable output, SOT-223</t>
-  </si>
-  <si>
     <t xml:space="preserve">U2, </t>
   </si>
   <si>
     <t>XC6206P122MR</t>
   </si>
   <si>
-    <t>XC6206PxxxMR</t>
-  </si>
-  <si>
-    <t>Positive 60-250mA Low Dropout Regulator, Fixed Output, SOT-23</t>
-  </si>
-  <si>
     <t xml:space="preserve">U3, </t>
   </si>
   <si>
@@ -334,14 +223,15 @@
     <t>Espressif:ESP32-S3-WROOM-1U</t>
   </si>
   <si>
-    <t>2.4 GHz WiFi (802.11 b/g/n) and Bluetooth ?簧 5 (LE) module Built around ESP32S3 series of SoCs, Xtensa ?簧 dualcore 32bit LX7 microprocessor Flash up to 16 MB, PSRAM up to 8 MB 36 GPIOs, rich set of peripherals Onboard PCB antenna</t>
+    <t>Total</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -927,11 +817,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,631 +1176,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <f>B2*CameraPositionCounts</f>
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C27" si="0">B3*CameraPositionCounts</f>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44990.138981481483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0.5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>22</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>